--- a/biology/Botanique/Verge_d'or_graminifoliée/Verge_d'or_graminifoliée.xlsx
+++ b/biology/Botanique/Verge_d'or_graminifoliée/Verge_d'or_graminifoliée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Verge_d%27or_graminifoli%C3%A9e</t>
+          <t>Verge_d'or_graminifoliée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euthamia graminifolia, Solidago graminifolia
 La Verge d'or graminifoliée (Euthamia graminifolia) est une espèce de plante à fleurs du genre des Solidages et de la famille des Astéracées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Verge_d%27or_graminifoli%C3%A9e</t>
+          <t>Verge_d'or_graminifoliée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été observée au Canada et aux États-Unis[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été observée au Canada et aux États-Unis.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Verge_d%27or_graminifoli%C3%A9e</t>
+          <t>Verge_d'or_graminifoliée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Liste des variétés et formes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (5 septembre 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (5 septembre 2023) :
 Euthamia graminifolia var. graminifolia
 Euthamia graminifolia var. nuttallii (Greene) W.Stone
 Solidago graminifolia f. major</t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Verge_d%27or_graminifoli%C3%A9e</t>
+          <t>Verge_d'or_graminifoliée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,11 +592,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Euthamia graminifolia (L.) Nutt.[2].
-L'espèce a été initialement classée dans le genre Chrysocoma sous le basionyme Chrysocoma graminifolia L.[2].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : verge d'or à feuilles de graminée[2], verge d'or graminifoliée[2], solidage à feuilles de graminée[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Euthamia graminifolia (L.) Nutt..
+L'espèce a été initialement classée dans le genre Chrysocoma sous le basionyme Chrysocoma graminifolia L..
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : verge d'or à feuilles de graminée, verge d'or graminifoliée, solidage à feuilles de graminée.
 Aster graminifolius (L.) Kuntze
 Chrysocoma graminifolia L.
 Chrysocoma virginiana DC.
